--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABC/15/seed1/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABC/15/seed1/result_data_KNN.xlsx
@@ -496,7 +496,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-20.414</v>
+        <v>-20.65</v>
       </c>
       <c r="B4" t="n">
         <v>8.199999999999999</v>
@@ -530,7 +530,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-22.308</v>
+        <v>-22.056</v>
       </c>
       <c r="B6" t="n">
         <v>5.51</v>
@@ -547,10 +547,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-21.928</v>
+        <v>-21.286</v>
       </c>
       <c r="B7" t="n">
-        <v>5.412</v>
+        <v>6.312</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
@@ -635,7 +635,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>4.558</v>
+        <v>5.065</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -655,7 +655,7 @@
         <v>4.02</v>
       </c>
       <c r="C13" t="n">
-        <v>-12.382</v>
+        <v>-13.225</v>
       </c>
       <c r="D13" t="n">
         <v>-8.359999999999999</v>
@@ -672,7 +672,7 @@
         <v>4.04</v>
       </c>
       <c r="C14" t="n">
-        <v>-12.036</v>
+        <v>-11.992</v>
       </c>
       <c r="D14" t="n">
         <v>-7.43</v>
@@ -686,7 +686,7 @@
         <v>-22.78</v>
       </c>
       <c r="B15" t="n">
-        <v>4.638</v>
+        <v>5.087000000000001</v>
       </c>
       <c r="C15" t="n">
         <v>-13.12</v>
@@ -700,13 +700,13 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.776</v>
+        <v>-21.771</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
       </c>
       <c r="C16" t="n">
-        <v>-12.512</v>
+        <v>-13.14</v>
       </c>
       <c r="D16" t="n">
         <v>-9.27</v>
@@ -757,7 +757,7 @@
         <v>11.01</v>
       </c>
       <c r="C19" t="n">
-        <v>-12.218</v>
+        <v>-12.228</v>
       </c>
       <c r="D19" t="n">
         <v>-7.9</v>
@@ -768,10 +768,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-22.168</v>
+        <v>-21.433</v>
       </c>
       <c r="B20" t="n">
-        <v>5.552</v>
+        <v>6.121</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
@@ -788,7 +788,7 @@
         <v>-19.55</v>
       </c>
       <c r="B21" t="n">
-        <v>9.48</v>
+        <v>8.904</v>
       </c>
       <c r="C21" t="n">
         <v>-13.13</v>
@@ -805,10 +805,10 @@
         <v>-20.06</v>
       </c>
       <c r="B22" t="n">
-        <v>9.843999999999999</v>
+        <v>8.516000000000002</v>
       </c>
       <c r="C22" t="n">
-        <v>-12.574</v>
+        <v>-12.393</v>
       </c>
       <c r="D22" t="n">
         <v>-6.8</v>
@@ -822,7 +822,7 @@
         <v>-20.35</v>
       </c>
       <c r="B23" t="n">
-        <v>7.384</v>
+        <v>7.359999999999999</v>
       </c>
       <c r="C23" t="n">
         <v>-12.89</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-21.546</v>
+        <v>-21.687</v>
       </c>
       <c r="B28" t="n">
         <v>5.47</v>
@@ -921,10 +921,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.806</v>
+        <v>-21.675</v>
       </c>
       <c r="B29" t="n">
-        <v>5.263999999999999</v>
+        <v>5.731</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.668</v>
+        <v>-21.685</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -1009,7 +1009,7 @@
         <v>-20.6</v>
       </c>
       <c r="B34" t="n">
-        <v>7.424000000000001</v>
+        <v>8.018000000000001</v>
       </c>
       <c r="C34" t="n">
         <v>-11.49</v>
@@ -1046,7 +1046,7 @@
         <v>9.84</v>
       </c>
       <c r="C36" t="n">
-        <v>-12.556</v>
+        <v>-12.37</v>
       </c>
       <c r="D36" t="n">
         <v>-9.050000000000001</v>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-19.936</v>
+        <v>-20.452</v>
       </c>
       <c r="B40" t="n">
         <v>10.75</v>
@@ -1145,7 +1145,7 @@
         <v>-18.32</v>
       </c>
       <c r="B42" t="n">
-        <v>8.644000000000002</v>
+        <v>7.582999999999998</v>
       </c>
       <c r="C42" t="n">
         <v>-13.45</v>
@@ -1162,7 +1162,7 @@
         <v>-22.33</v>
       </c>
       <c r="B43" t="n">
-        <v>5.94</v>
+        <v>5.671</v>
       </c>
       <c r="C43" t="n">
         <v>-11.77</v>
@@ -1179,7 +1179,7 @@
         <v>-21.91</v>
       </c>
       <c r="B44" t="n">
-        <v>5.252000000000001</v>
+        <v>4.993</v>
       </c>
       <c r="C44" t="n">
         <v>-10.47</v>
@@ -1196,7 +1196,7 @@
         <v>-22.15</v>
       </c>
       <c r="B45" t="n">
-        <v>4.504</v>
+        <v>5.048</v>
       </c>
       <c r="C45" t="n">
         <v>-11</v>
@@ -1210,13 +1210,13 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-20.572</v>
+        <v>-21.15</v>
       </c>
       <c r="B46" t="n">
-        <v>7.715999999999999</v>
+        <v>6.344999999999999</v>
       </c>
       <c r="C46" t="n">
-        <v>-14.448</v>
+        <v>-13.898</v>
       </c>
       <c r="D46" t="n">
         <v>-8.09</v>
@@ -1281,10 +1281,10 @@
         <v>-22.25</v>
       </c>
       <c r="B50" t="n">
-        <v>4.54</v>
+        <v>5.291</v>
       </c>
       <c r="C50" t="n">
-        <v>-11.928</v>
+        <v>-13.363</v>
       </c>
       <c r="D50" t="n">
         <v>-8.029999999999999</v>
@@ -1295,10 +1295,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-21.302</v>
+        <v>-20.943</v>
       </c>
       <c r="B51" t="n">
-        <v>6.968000000000001</v>
+        <v>7.513999999999998</v>
       </c>
       <c r="C51" t="n">
         <v>-13.17</v>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-21.144</v>
+        <v>-21.262</v>
       </c>
       <c r="B52" t="n">
         <v>6.39</v>
@@ -1397,7 +1397,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.482</v>
+        <v>-22.263</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.1</v>
+        <v>-22.415</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1482,7 +1482,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-22.214</v>
+        <v>-21.782</v>
       </c>
       <c r="B62" t="n">
         <v>4.28</v>
@@ -1550,10 +1550,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-21.608</v>
+        <v>-21.551</v>
       </c>
       <c r="B66" t="n">
-        <v>6.004</v>
+        <v>5.473</v>
       </c>
       <c r="C66" t="n">
         <v>-10.51</v>
@@ -1570,7 +1570,7 @@
         <v>-21.67</v>
       </c>
       <c r="B67" t="n">
-        <v>5.414</v>
+        <v>5.249000000000001</v>
       </c>
       <c r="C67" t="n">
         <v>-10.67</v>
@@ -1669,7 +1669,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-20.174</v>
+        <v>-20.426</v>
       </c>
       <c r="B73" t="n">
         <v>10.24</v>
@@ -1686,7 +1686,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-21.152</v>
+        <v>-21.045</v>
       </c>
       <c r="B74" t="n">
         <v>7.45</v>
@@ -1774,7 +1774,7 @@
         <v>-20.57</v>
       </c>
       <c r="B79" t="n">
-        <v>6.232</v>
+        <v>5.53</v>
       </c>
       <c r="C79" t="n">
         <v>-9.779999999999999</v>
@@ -1859,7 +1859,7 @@
         <v>-22.05</v>
       </c>
       <c r="B84" t="n">
-        <v>5.734</v>
+        <v>5.798</v>
       </c>
       <c r="C84" t="n">
         <v>-12.28</v>
@@ -1992,10 +1992,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-20.87</v>
+        <v>-21.33300000000001</v>
       </c>
       <c r="B92" t="n">
-        <v>6.174</v>
+        <v>5.527</v>
       </c>
       <c r="C92" t="n">
         <v>-9.49</v>
@@ -2049,7 +2049,7 @@
         <v>6.4</v>
       </c>
       <c r="C95" t="n">
-        <v>-11.714</v>
+        <v>-11.719</v>
       </c>
       <c r="D95" t="n">
         <v>-6.44</v>
@@ -2080,10 +2080,10 @@
         <v>-21.32</v>
       </c>
       <c r="B97" t="n">
-        <v>7</v>
+        <v>6.811</v>
       </c>
       <c r="C97" t="n">
-        <v>-13.87</v>
+        <v>-13.606</v>
       </c>
       <c r="D97" t="n">
         <v>-7.59</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-21.282</v>
+        <v>-21.481</v>
       </c>
       <c r="B100" t="n">
         <v>5.09</v>
